--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pobbiester/PycharmProjects/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72A7BC-C1F8-E149-BB92-1D9A06D4C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C069FD-EF4D-AF43-B02B-DD05362BE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3560" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="3520" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
